--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2083.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2083.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175017002629989</v>
+        <v>2.019745111465454</v>
       </c>
       <c r="B1">
-        <v>3.829802256037797</v>
+        <v>3.432794570922852</v>
       </c>
       <c r="C1">
-        <v>3.457287744166999</v>
+        <v>3.014929294586182</v>
       </c>
       <c r="D1">
-        <v>3.735574513165273</v>
+        <v>3.277546644210815</v>
       </c>
       <c r="E1">
-        <v>1.216632286630212</v>
+        <v>2.028753280639648</v>
       </c>
     </row>
   </sheetData>
